--- a/04_Project/DMS phase 1a/1a staging table/CP_POL_CLIENT_EMAIL.xlsx
+++ b/04_Project/DMS phase 1a/1a staging table/CP_POL_CLIENT_EMAIL.xlsx
@@ -10,12 +10,12 @@
     <sheet name="CP_POL_CLIENT_EMAIL.CSV" sheetId="6" r:id="rId1"/>
     <sheet name="Sample Data" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Default to be display as '1'</t>
+  </si>
+  <si>
+    <t>Remark_Mine</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -328,15 +337,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,10 +664,11 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -676,11 +687,14 @@
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -698,8 +712,9 @@
         <v>13</v>
       </c>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -720,8 +735,9 @@
         <v>13</v>
       </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
@@ -735,15 +751,16 @@
       <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -764,8 +781,9 @@
         <v>13</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -786,8 +804,9 @@
         <v>13</v>
       </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -806,8 +825,9 @@
         <v>13</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -828,8 +848,9 @@
         <v>13</v>
       </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -850,8 +871,9 @@
         <v>13</v>
       </c>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -870,8 +892,9 @@
         <v>13</v>
       </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -889,47 +912,48 @@
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
